--- a/services/project-service/src/main/resources/templates/import/Danh_Sach_Tai_San.xlsx
+++ b/services/project-service/src/main/resources/templates/import/Danh_Sach_Tai_San.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvtan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhangBui\Documents\GitHub\qlts\services\project-service\src\main\resources\templates\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Resource_team" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -60,6 +60,36 @@
   </si>
   <si>
     <t>vị trí kho</t>
+  </si>
+  <si>
+    <t>${deviceExcels.code}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.stt}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.name}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.specifications}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.unit}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.lostDevice}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.status}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.dateAdd}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.wareHouseName}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.wareHouseAdd}</t>
   </si>
 </sst>
 </file>
@@ -468,27 +498,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,6 +552,38 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/services/project-service/src/main/resources/templates/import/Danh_Sach_Tai_San.xlsx
+++ b/services/project-service/src/main/resources/templates/import/Danh_Sach_Tai_San.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhangBui\Documents\GitHub\qlts\services\project-service\src\main\resources\templates\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KhangBui\Documents\GitHub\qlts\qlts\services\project-service\src\main\resources\templates\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -90,6 +90,27 @@
   </si>
   <si>
     <t>${deviceExcels.wareHouseAdd}</t>
+  </si>
+  <si>
+    <t>${deviceExcels.prin}</t>
+  </si>
+  <si>
+    <t>Người Đang sử dụng</t>
+  </si>
+  <si>
+    <t>${deviceExcels.nameHummerUse}</t>
+  </si>
+  <si>
+    <t>Số seri</t>
+  </si>
+  <si>
+    <t>${deviceExcels.seri}</t>
+  </si>
+  <si>
+    <t>Phòng ban sở hữu</t>
+  </si>
+  <si>
+    <t>${deviceExcels.partName}</t>
   </si>
 </sst>
 </file>
@@ -498,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,16 +531,18 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="5" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" customWidth="1"/>
+    <col min="12" max="14" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +576,17 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -567,6 +599,9 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
@@ -584,6 +619,15 @@
       </c>
       <c r="K2" t="s">
         <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
